--- a/BalanceSheet/DAL_bal.xlsx
+++ b/BalanceSheet/DAL_bal.xlsx
@@ -3450,7 +3450,7 @@
         <v>-2306000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>-3110000000.0</v>
+        <v>-1988000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>-1305000000.0</v>
